--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -355,14 +355,152 @@
     <t xml:space="preserve">Administrar Roles </t>
   </si>
   <si>
-    <t xml:space="preserve">Editar acceso a Menú </t>
+    <t>Agregar Rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Accesos a Menús </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrar Permisos De Administración de Catálogos de Referencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quitar Acceso a Menú Administración de Catálogo de Retenciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar acceso a Menú Administración de Catálogos </t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Ingresa al sitio web solo que si pasa un tiempo</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-307</t>
+  </si>
+  <si>
+    <t>Ingresar al catálogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrega Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra registro con los caracteres requerido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra por Pagina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buena Ortografía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca registro </t>
+  </si>
+  <si>
+    <t>Filtrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra por paginación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin faltas de Ortografía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La palabra descripción no tiene acento </t>
+  </si>
+  <si>
+    <t>Ingresa al catálogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtrado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar margen de números en el campo Teléfono </t>
+  </si>
+  <si>
+    <t>filtrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redacción mensajes de confirmación </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar Aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catálogo de Aplicaciones Registradas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado de Aplicaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refistra aplicaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registra aplicación </t>
+  </si>
+  <si>
+    <t>Ajustar botones de cancelar y actualizar. Cancelar el color esta rojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa a la acción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a la acción </t>
+  </si>
+  <si>
+    <t>Cancela Registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelar Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar de activo a activo se refleja en pantalla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activo / Inactivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salir del apartado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar dedacción en el mensaje de confirmación </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-338</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-340</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-342</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +567,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -672,7 +817,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -715,8 +860,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,12 +921,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -930,7 +1079,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1488,9 +1636,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1554,9 +1700,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1677,9 +1821,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1700,9 +1842,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -7370,7 +7510,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -7435,7 +7575,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7542,7 +7682,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7892,13 +8032,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7919,94 +8059,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -8052,7 +8192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8060,7 +8200,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" t="s">
+      <c r="D7" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E7" t="s">
@@ -8069,23 +8209,32 @@
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="1">
+        <v>45147</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="s">
+      <c r="D8" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E8" t="s">
@@ -8093,6 +8242,9 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
@@ -8100,17 +8252,19 @@
       </c>
       <c r="J8" s="20"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>45147</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="s">
+      <c r="D9" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E9" t="s">
@@ -8130,7 +8284,9 @@
       </c>
       <c r="J9" s="20"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>45147</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -8142,7 +8298,7 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E10" t="s">
@@ -8162,501 +8318,1221 @@
       </c>
       <c r="J10" s="20"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>45147</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="23" t="s">
         <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="1">
+        <v>45147</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="41" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23" t="s">
         <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="1">
+        <v>45147</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="41" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23" t="s">
         <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="1">
+        <v>45147</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="41" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23" t="s">
         <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45147</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="41" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23" t="s">
         <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="1">
+        <v>45147</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="41" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="41" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23" t="s">
         <v>63</v>
       </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="41" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>6</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="41" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="41" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="41" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23" t="s">
         <v>60</v>
       </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="41" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="41" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="41" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="23" t="s">
         <v>63</v>
       </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="41" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>7</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="41" t="s">
+    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N28" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="41" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="41" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23" t="s">
         <v>60</v>
       </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="41" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23" t="s">
         <v>61</v>
       </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="41" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="41" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="23" t="s">
         <v>63</v>
       </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="41" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="41" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45147</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
         <v>9</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>10</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D40" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E40" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F40" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="41" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23" t="s">
         <v>70</v>
       </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="41" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23" t="s">
         <v>71</v>
       </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="1">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="41" t="s">
+    <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="23" t="s">
         <v>73</v>
       </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" s="1">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="41" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="N44" s="1">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="41" t="s">
+    <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" s="1">
+        <v>45148</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
-        <v>10</v>
-      </c>
-      <c r="B43" s="21" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>11</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C46" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D46" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E46" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F46" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="1">
+        <v>45149</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="41" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="N47" s="1">
+        <v>45149</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="41" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="44"/>
+      <c r="N48" s="1">
+        <v>45149</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="41" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="23" t="s">
         <v>60</v>
       </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="44"/>
+      <c r="N49" s="1">
+        <v>45149</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="41" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="23" t="s">
         <v>75</v>
       </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="44"/>
+      <c r="N50" s="1">
+        <v>45149</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="41" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="44"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="41" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="23" t="s">
         <v>76</v>
       </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>12</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E53" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F53" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F51" s="41" t="s">
-        <v>20</v>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F52" s="41" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F53" s="41" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="F54" s="41" t="s">
-        <v>78</v>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>13</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N62" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N63" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <v>14</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+      <c r="N64" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" s="1">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="A43:A49"/>
+  <mergeCells count="58">
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -8664,52 +9540,65 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M28" r:id="rId1"/>
+    <hyperlink ref="M34" r:id="rId2"/>
+    <hyperlink ref="M41" r:id="rId3"/>
+    <hyperlink ref="M45" r:id="rId4"/>
+    <hyperlink ref="M66" r:id="rId5"/>
+    <hyperlink ref="M47" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$1:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K97</xm:sqref>
+          <xm:sqref>K68:K103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
+            <xm:f>'J:\github\All-documents\PAUA\ENTREGABLES\[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G98</xm:sqref>
+          <xm:sqref>G68:G104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$1:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L97</xm:sqref>
+          <xm:sqref>L68:L103</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G7:G67</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$D$2:$D$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>K7:K67</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L7:L67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -439,9 +439,6 @@
     <t xml:space="preserve">Redacción mensajes de confirmación </t>
   </si>
   <si>
-    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-309</t>
-  </si>
-  <si>
     <t xml:space="preserve">Registrar Aplicación </t>
   </si>
   <si>
@@ -487,13 +484,16 @@
     <t xml:space="preserve">Ajustar dedacción en el mensaje de confirmación </t>
   </si>
   <si>
-    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-338</t>
-  </si>
-  <si>
-    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-340</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-342</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-369</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-372</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-375</t>
   </si>
 </sst>
 </file>
@@ -864,6 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,7 +922,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8038,7 +8038,7 @@
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomRight" activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8059,94 +8059,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -8323,19 +8323,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -8355,11 +8355,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="23" t="s">
         <v>20</v>
       </c>
@@ -8377,11 +8377,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="23" t="s">
         <v>21</v>
       </c>
@@ -8399,11 +8399,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="23" t="s">
         <v>60</v>
       </c>
@@ -8421,11 +8421,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
@@ -8443,11 +8443,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
@@ -8465,11 +8465,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="23" t="s">
         <v>63</v>
       </c>
@@ -8487,11 +8487,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
@@ -8509,19 +8509,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -8541,11 +8541,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
@@ -8563,11 +8563,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
@@ -8585,11 +8585,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="23" t="s">
         <v>60</v>
       </c>
@@ -8607,11 +8607,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
@@ -8629,11 +8629,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="23" t="s">
         <v>62</v>
       </c>
@@ -8651,11 +8651,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="23" t="s">
         <v>63</v>
       </c>
@@ -8673,11 +8673,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8695,19 +8695,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="25">
         <v>7</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -8727,11 +8727,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
@@ -8745,18 +8745,18 @@
         <v>87</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="N28" s="1">
         <v>45147</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
@@ -8774,11 +8774,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="23" t="s">
         <v>60</v>
       </c>
@@ -8796,11 +8796,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="23" t="s">
         <v>61</v>
       </c>
@@ -8818,11 +8818,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="23" t="s">
         <v>62</v>
       </c>
@@ -8840,11 +8840,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="23" t="s">
         <v>63</v>
       </c>
@@ -8862,11 +8862,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="23" t="s">
         <v>65</v>
       </c>
@@ -8880,26 +8880,26 @@
         <v>93</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="N34" s="1">
         <v>45147</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
+      <c r="A35" s="25">
         <v>8</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="23" t="s">
@@ -8916,11 +8916,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
@@ -8935,19 +8935,19 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
+      <c r="A37" s="25">
         <v>9</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="23" t="s">
@@ -8957,7 +8957,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>101</v>
@@ -8965,31 +8965,31 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="23" t="s">
         <v>61</v>
       </c>
@@ -9005,19 +9005,19 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
+      <c r="A40" s="25">
         <v>10</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="23" t="s">
@@ -9027,43 +9027,43 @@
         <v>16</v>
       </c>
       <c r="H40" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="N40" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="23" t="s">
         <v>70</v>
       </c>
       <c r="G41" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="43" t="s">
-        <v>113</v>
+      <c r="H41" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N41" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="24"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="23" t="s">
         <v>71</v>
       </c>
@@ -9071,21 +9071,21 @@
         <v>16</v>
       </c>
       <c r="H42" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="N42" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="24"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="23" t="s">
         <v>73</v>
       </c>
@@ -9093,21 +9093,21 @@
         <v>16</v>
       </c>
       <c r="H43" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="N43" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="24"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="23" t="s">
         <v>72</v>
       </c>
@@ -9115,21 +9115,21 @@
         <v>16</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N44" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="24"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="23" t="s">
         <v>65</v>
       </c>
@@ -9137,32 +9137,32 @@
         <v>24</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I45" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N45" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
+      <c r="A46" s="25">
         <v>11</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F46" s="23" t="s">
@@ -9176,11 +9176,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="23" t="s">
         <v>20</v>
       </c>
@@ -9188,18 +9188,18 @@
         <v>24</v>
       </c>
       <c r="M47" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N47" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
@@ -9212,11 +9212,11 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="23" t="s">
         <v>60</v>
       </c>
@@ -9229,11 +9229,11 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="23" t="s">
         <v>75</v>
       </c>
@@ -9246,11 +9246,11 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="23" t="s">
         <v>65</v>
       </c>
@@ -9260,11 +9260,11 @@
       <c r="M51" s="44"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="23" t="s">
         <v>76</v>
       </c>
@@ -9273,19 +9273,19 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
+      <c r="A53" s="25">
         <v>12</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="23" t="s">
@@ -9293,69 +9293,69 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
+      <c r="A59" s="25">
         <v>13</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="23" t="s">
@@ -9363,21 +9363,21 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="23" t="s">
         <v>82</v>
       </c>
@@ -9386,11 +9386,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="23" t="s">
         <v>76</v>
       </c>
@@ -9399,11 +9399,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="23" t="s">
         <v>65</v>
       </c>
@@ -9412,19 +9412,19 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
+      <c r="A64" s="25">
         <v>14</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="23" t="s">
@@ -9444,11 +9444,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="23" t="s">
         <v>71</v>
       </c>
@@ -9456,21 +9456,21 @@
         <v>16</v>
       </c>
       <c r="H65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" t="s">
         <v>116</v>
-      </c>
-      <c r="I65" t="s">
-        <v>117</v>
       </c>
       <c r="N65" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="23" t="s">
         <v>65</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>93</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N66" s="1">
         <v>45148</v>
@@ -9497,6 +9497,7 @@
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E40:E45"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="E64:E66"/>
@@ -9540,7 +9541,6 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E40:E45"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="E46:E52"/>
     <mergeCell ref="D46:D52"/>
@@ -9555,12 +9555,11 @@
     <hyperlink ref="M28" r:id="rId1"/>
     <hyperlink ref="M34" r:id="rId2"/>
     <hyperlink ref="M41" r:id="rId3"/>
-    <hyperlink ref="M45" r:id="rId4"/>
-    <hyperlink ref="M66" r:id="rId5"/>
-    <hyperlink ref="M47" r:id="rId6"/>
+    <hyperlink ref="M66" r:id="rId4"/>
+    <hyperlink ref="M47" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="22" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -494,6 +494,61 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://paua-sfytgenl.atlassian.net/browse/KPAUA-369     https://paua-sfytgenl.atlassian.net/browse/KPAUA-391 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registra Usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swich Usuarios Inactivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swich Usuarios Activos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga Solicitud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado de Usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al Menú Usiarios </t>
+  </si>
+  <si>
+    <t>al momento de editar un registro y seleccionar la plataforma te direcciona a dos pantallas y se descuadra todo la información en la pantalla
+El tooltip descriptivo que solo diga “Editar” O “Editar Usuario”  ya que se visualiza el nombre de cada usurario.</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homologar los mensajes de confirmación y alertas en el color de los botones que todos sean iguales hay muchas discrepancias en cuanto a diseños y  colores. </t>
+  </si>
+  <si>
+    <t>Registra usuario</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitudes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceptar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Anterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Siguiente </t>
   </si>
 </sst>
 </file>
@@ -865,11 +920,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,8 +977,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7510,7 +7565,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -7575,7 +7630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7682,7 +7737,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -8032,13 +8087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="M70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M67" sqref="M67"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8323,19 +8378,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -8355,11 +8410,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="23" t="s">
         <v>20</v>
       </c>
@@ -8377,11 +8432,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="23" t="s">
         <v>21</v>
       </c>
@@ -8399,11 +8454,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="23" t="s">
         <v>60</v>
       </c>
@@ -8421,11 +8476,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
@@ -8443,11 +8498,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
@@ -8465,11 +8520,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="23" t="s">
         <v>63</v>
       </c>
@@ -8487,11 +8542,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
@@ -8509,19 +8564,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="26">
         <v>6</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -8541,11 +8596,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
@@ -8563,11 +8618,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
@@ -8585,11 +8640,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="23" t="s">
         <v>60</v>
       </c>
@@ -8607,11 +8662,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
@@ -8629,11 +8684,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="23" t="s">
         <v>62</v>
       </c>
@@ -8651,11 +8706,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="23" t="s">
         <v>63</v>
       </c>
@@ -8673,11 +8728,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8695,19 +8750,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="26">
         <v>7</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -8727,11 +8782,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
@@ -8745,18 +8800,18 @@
         <v>87</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N28" s="1">
         <v>45147</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
@@ -8774,11 +8829,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>60</v>
       </c>
@@ -8796,11 +8851,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>61</v>
       </c>
@@ -8818,11 +8873,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>62</v>
       </c>
@@ -8840,11 +8895,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="23" t="s">
         <v>63</v>
       </c>
@@ -8862,11 +8917,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="23" t="s">
         <v>65</v>
       </c>
@@ -8887,19 +8942,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="26">
         <v>8</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="23" t="s">
@@ -8916,11 +8971,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
@@ -8935,19 +8990,19 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="26">
         <v>9</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="23" t="s">
@@ -8965,11 +9020,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="23" t="s">
         <v>106</v>
       </c>
@@ -8985,11 +9040,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="23" t="s">
         <v>61</v>
       </c>
@@ -9005,19 +9060,19 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="26">
         <v>10</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="23" t="s">
@@ -9037,11 +9092,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="23" t="s">
         <v>70</v>
       </c>
@@ -9059,11 +9114,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="23" t="s">
         <v>71</v>
       </c>
@@ -9081,11 +9136,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="23" t="s">
         <v>73</v>
       </c>
@@ -9103,11 +9158,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="23" t="s">
         <v>72</v>
       </c>
@@ -9125,11 +9180,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="23" t="s">
         <v>65</v>
       </c>
@@ -9150,19 +9205,19 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+      <c r="A46" s="26">
         <v>11</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F46" s="23" t="s">
@@ -9176,18 +9231,18 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G47" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="44" t="s">
+      <c r="M47" s="25" t="s">
         <v>121</v>
       </c>
       <c r="N47" s="1">
@@ -9195,76 +9250,76 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="44"/>
+      <c r="M48" s="25"/>
       <c r="N48" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G49" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="44"/>
+      <c r="M49" s="25"/>
       <c r="N49" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G50" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="44"/>
+      <c r="M50" s="25"/>
       <c r="N50" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G51" t="s">
         <v>24</v>
       </c>
-      <c r="M51" s="44"/>
+      <c r="M51" s="25"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="23" t="s">
         <v>76</v>
       </c>
@@ -9273,19 +9328,19 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="A53" s="26">
         <v>12</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="23" t="s">
@@ -9293,69 +9348,69 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
+      <c r="A59" s="26">
         <v>13</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="23" t="s">
@@ -9363,21 +9418,21 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="23" t="s">
         <v>82</v>
       </c>
@@ -9386,11 +9441,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="23" t="s">
         <v>76</v>
       </c>
@@ -9399,11 +9454,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="23" t="s">
         <v>65</v>
       </c>
@@ -9412,19 +9467,19 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="26">
         <v>14</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="23" t="s">
@@ -9444,11 +9499,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="23" t="s">
         <v>71</v>
       </c>
@@ -9466,11 +9521,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="23" t="s">
         <v>65</v>
       </c>
@@ -9490,14 +9545,232 @@
         <v>45148</v>
       </c>
     </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="26">
+        <v>15</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N68" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>135</v>
+      </c>
+      <c r="I70" t="s">
+        <v>136</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N70" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F75" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F76" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F77" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F78" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="M47:M51"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="E40:E45"/>
+  <mergeCells count="63">
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="E64:E66"/>
@@ -9514,52 +9787,24 @@
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="E53:E58"/>
     <mergeCell ref="A53:A58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E40:E45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M28" r:id="rId1"/>
+    <hyperlink ref="M28" r:id="rId1" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-369"/>
     <hyperlink ref="M34" r:id="rId2"/>
     <hyperlink ref="M41" r:id="rId3"/>
     <hyperlink ref="M66" r:id="rId4"/>
     <hyperlink ref="M47" r:id="rId5"/>
+    <hyperlink ref="M68" r:id="rId6"/>
+    <hyperlink ref="M70" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -9573,7 +9818,7 @@
           <x14:formula1>
             <xm:f>'J:\github\All-documents\PAUA\ENTREGABLES\[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G68:G104</xm:sqref>
+          <xm:sqref>G74:G104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9585,7 +9830,7 @@
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G67</xm:sqref>
+          <xm:sqref>G7:G73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
+    <pivotCache cacheId="28" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="151">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ajustar dedacción en el mensaje de confirmación </t>
-  </si>
-  <si>
-    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-342</t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-369</t>
@@ -549,6 +546,33 @@
   </si>
   <si>
     <t xml:space="preserve">Botón Siguiente </t>
+  </si>
+  <si>
+    <t>Dirige al registro anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dirige al registro anterior / Agregar tooltips descriptivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirige al registro siguiente / Agregar tooltips descriptivos </t>
+  </si>
+  <si>
+    <t>Dirige al registro siguiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al apartado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporta documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción con acento </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-377</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-402</t>
   </si>
 </sst>
 </file>
@@ -872,7 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -920,11 +944,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,8 +1001,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1134,6 +1164,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1627,7 +1658,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1691,7 +1724,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1755,7 +1790,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1876,7 +1913,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1884,6 +1923,29 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3830635702556925E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.0051606849636403E-2"/>
@@ -1897,9 +1959,11 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1958,13 +2022,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$6</c:f>
+              <c:f>GRAFICOS!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Pendiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -1972,15 +2039,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$6</c:f>
+              <c:f>GRAFICOS!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,24 +2442,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25:$A$26</c:f>
+              <c:f>GRAFICOS!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25:$B$26</c:f>
+              <c:f>GRAFICOS!$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3394,82 +3461,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GRAFICOS!$C$47:$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2"/>
-                </a:gs>
-                <a:gs pos="75000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>GRAFICOS!$A$49:$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(en blanco)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GRAFICOS!$C$49:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBA9-4284-B018-BA319FBDCD7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5699,13 +5690,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45145.678899652776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45162.388239699074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N26" sheet="Catálogos"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5720,43 +5711,43 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Acción" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
+        <s v="Error"/>
         <s v="Realizado"/>
-        <s v="Error"/>
-        <s v="Ingresar "/>
-        <m/>
-        <s v="Pendiente" u="1"/>
+        <s v="Pendiente"/>
+        <m u="1"/>
+        <s v="Ingresar " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
-        <s v="Noe Treviño"/>
+        <s v="Noe Treviño" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
-        <s v="Tarea por hacer"/>
+        <s v="Tarea por hacer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-07T00:00:00" maxDate="2023-08-08T00:00:00"/>
+    <cacheField name="Fecha " numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-08-09T00:00:00" maxDate="2023-08-10T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5768,118 +5759,230 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="112">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <n v="1"/>
-    <s v="Ingresar sitio wed"/>
-    <s v="http://10.200.4.106 "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Ingresar sitio web"/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="irisa"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso Correctamente al sistema"/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresa al sitio web solo que si pasa un tiempo"/>
+    <s v="Ingresar "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-307"/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="irisc"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="irisa"/>
     <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingreso correctamente con el usuario correspondiente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <x v="1"/>
+    <m/>
+    <s v="Ingresar "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <n v="3"/>
-    <s v="Aplicación PABMI"/>
-    <s v="PABMI"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Aplicación PAUA"/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="irisa"/>
     <s v="Ingresar "/>
+    <x v="1"/>
+    <s v="Ingresar a  la plataforma"/>
+    <s v="Ingresar plataforma PAUA"/>
+    <m/>
     <x v="0"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se localiza un problema de ortografía en la opción de Catálogos."/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-496"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <n v="4"/>
     <s v="Principal "/>
-    <s v="Menú Inicio"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Despliegue"/>
+    <s v="Catálogos "/>
+    <s v="Administrador "/>
+    <s v="irisa"/>
+    <s v="Direcciona "/>
     <x v="1"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se selecciona la opción de “Configuración” enseguida se muestra un nuevo menú con dos opciones y se elige la opción de Catálogos, al dar clic se espera que el menú inicial se cierre, pero este no lo hace se queda en pantalla y se tiene que dar clic en la parte derecha para que se cierre"/>
-    <s v="Despliegue de menú"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-519"/>
-    <d v="2023-07-07T00:00:00"/>
+    <s v="Ingresa al menú correctamente"/>
+    <s v="Ingresar al Menú Catálogos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <n v="5"/>
-    <s v="Inicio"/>
-    <s v="Inicio "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Inicio "/>
+    <s v="Catálogos "/>
+    <s v="Secretarías "/>
+    <s v="Administrador "/>
+    <s v="irisa"/>
+    <s v="Ingresar "/>
     <x v="1"/>
-    <s v="Al querer regresar al menú inicio no ejecuta la acción "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
+    <s v="Ingresa al catálogo"/>
+    <s v="Ingresar al catálogo"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
     <x v="1"/>
+    <s v="Agrega Registro "/>
+    <s v="Agrega Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
     <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-520"/>
-    <d v="2023-07-07T00:00:00"/>
+    <s v="Edita registro "/>
+    <s v="Edita Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Elimina registro "/>
+    <s v="Elimina Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="1"/>
+    <s v="Busca registro "/>
+    <s v="Buscar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filtrado "/>
+    <x v="1"/>
+    <s v="Filtrado"/>
+    <s v="Filtra registro con los caracteres requerido "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Filas por Página "/>
+    <x v="2"/>
+    <s v="Filtra por paginación "/>
+    <s v="Filtra por Pagina "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortagrafía "/>
+    <x v="1"/>
+    <s v="Sin faltas de Ortografía "/>
+    <s v="Buena Ortografía "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
-    <s v="Configuración "/>
     <s v="Catálogos "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Tipo Dependencia "/>
+    <s v="Administrador "/>
+    <s v="irisa"/>
     <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingreso Correctamente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <x v="1"/>
+    <s v="Ingresa al catálogo"/>
+    <s v="Ingresar al catálogo"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
-    <n v="7"/>
-    <s v="Catálogos "/>
-    <s v="Activo"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar Correctamente "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Agregar"/>
+    <x v="1"/>
+    <s v="Agrega Registro "/>
+    <s v="Agrega Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-796"/>
-    <d v="2023-08-04T00:00:00"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5887,15 +5990,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Agregar"/>
-    <x v="0"/>
-    <s v="Mando un error al ingresar el regristro 11"/>
-    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="Edita registro "/>
+    <s v="Edita Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5903,15 +6006,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Eliminar"/>
+    <s v="Eliminar "/>
     <x v="1"/>
-    <s v="Redactar correctamente la preguta en el mensaje de confirmación "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Elimina registro "/>
+    <s v="Elimina Registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5919,15 +6022,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Editar"/>
+    <s v="Buscar "/>
     <x v="1"/>
-    <s v="Editar registro esta arrojando un error se tienen que dar tres clicks para confirmar lo que se esta editando "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Busca registro "/>
+    <s v="Buscar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5935,15 +6038,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
+    <s v="Filtrado "/>
+    <x v="1"/>
+    <s v="filtrado "/>
+    <s v="Filtra registro con los caracteres requerido "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5951,15 +6054,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="AREA lleva acento ÁREA  "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Filas por Página "/>
+    <x v="2"/>
+    <s v="Filtra por paginación "/>
+    <s v="Filtra por Pagina "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5967,1606 +6070,22 @@
     <m/>
     <m/>
     <m/>
-    <s v="Exportar"/>
+    <s v="Ortagrafía "/>
     <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
+    <s v="La palabra descripción no tiene acento "/>
+    <s v="Buena Ortografía "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Catálogos "/>
-    <s v="Presentación Muebles "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-818"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Proceso"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-816"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Transacción"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-819"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Catálogos "/>
-    <s v="Modelos"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-802 "/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Botón Agregar campo Marca el recuadro de selección se empalma con la palabra Marca _x000a_"/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Catálogos "/>
-    <s v="Tipos de Activo Fijo "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-820"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Bien"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-814"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Proveedor"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="2"/>
-    <s v="Realizado"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-817"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Catálogos "/>
-    <s v="Motivos de Baja"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-803"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Catálogos "/>
-    <s v="Estatus de Resguardos"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-797"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="0"/>
-    <s v="Agrega Registros "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="Elimina registro modificar la redacción del mensaje de confirmación "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="Se detecta un fallo al aceptar la edición de regisro  se ledan mas de tres clics para ejecutar la operación "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Catálogos "/>
-    <s v="Líneas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-798"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Se agregan registros solo que envió un error en pantalla "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Comprobante"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-815"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Reportes"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-818"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Catálogos "/>
-    <s v="Marcas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-800"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Mensaje de confirmación aparece por mas de 5 segundos en pantalla "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Catálogos "/>
-    <s v="Procesos Steps "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-813"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Arroja un error al ingresar al menú no permite realizar otra función "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <d v="2023-08-09T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -7582,7 +6101,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7592,10 +6111,7 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -7630,8 +6146,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7641,11 +6157,11 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
+        <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7660,9 +6176,12 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -7737,8 +6256,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7753,14 +6272,14 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item h="1" m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item x="1"/>
+        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7781,12 +6300,9 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -8087,13 +6603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="M70" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8378,19 +6894,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -8410,11 +6926,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="23" t="s">
         <v>20</v>
       </c>
@@ -8432,11 +6948,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="23" t="s">
         <v>21</v>
       </c>
@@ -8454,11 +6970,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="23" t="s">
         <v>60</v>
       </c>
@@ -8476,11 +6992,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
@@ -8498,11 +7014,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
@@ -8520,11 +7036,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="23" t="s">
         <v>63</v>
       </c>
@@ -8542,11 +7058,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
@@ -8564,19 +7080,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -8596,11 +7112,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
@@ -8618,11 +7134,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
@@ -8640,11 +7156,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="23" t="s">
         <v>60</v>
       </c>
@@ -8662,11 +7178,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
@@ -8684,11 +7200,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="23" t="s">
         <v>62</v>
       </c>
@@ -8706,11 +7222,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="23" t="s">
         <v>63</v>
       </c>
@@ -8728,11 +7244,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8750,19 +7266,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <v>7</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -8782,11 +7298,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
@@ -8800,18 +7316,18 @@
         <v>87</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N28" s="1">
         <v>45147</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
@@ -8829,11 +7345,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="23" t="s">
         <v>60</v>
       </c>
@@ -8851,11 +7367,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="23" t="s">
         <v>61</v>
       </c>
@@ -8873,11 +7389,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="23" t="s">
         <v>62</v>
       </c>
@@ -8895,11 +7411,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="23" t="s">
         <v>63</v>
       </c>
@@ -8917,11 +7433,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="23" t="s">
         <v>65</v>
       </c>
@@ -8935,26 +7451,26 @@
         <v>93</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N34" s="1">
         <v>45147</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="25">
         <v>8</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="23" t="s">
@@ -8971,11 +7487,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
@@ -8990,19 +7506,19 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>9</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="23" t="s">
@@ -9020,11 +7536,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="23" t="s">
         <v>106</v>
       </c>
@@ -9040,11 +7556,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="23" t="s">
         <v>61</v>
       </c>
@@ -9060,19 +7576,19 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="A40" s="25">
         <v>10</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="23" t="s">
@@ -9092,11 +7608,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="23" t="s">
         <v>70</v>
       </c>
@@ -9107,18 +7623,18 @@
         <v>112</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N41" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="23" t="s">
         <v>71</v>
       </c>
@@ -9136,11 +7652,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="23" t="s">
         <v>73</v>
       </c>
@@ -9158,11 +7674,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="23" t="s">
         <v>72</v>
       </c>
@@ -9180,11 +7696,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="23" t="s">
         <v>65</v>
       </c>
@@ -9198,26 +7714,26 @@
         <v>93</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N45" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+      <c r="A46" s="25">
         <v>11</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F46" s="23" t="s">
@@ -9226,100 +7742,121 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
+      <c r="I46" s="23" t="s">
+        <v>146</v>
+      </c>
       <c r="N46" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G47" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="25" t="s">
-        <v>121</v>
+      <c r="I47" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="N47" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="25"/>
+      <c r="I48" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M48" s="44"/>
       <c r="N48" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G49" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="25"/>
+      <c r="I49" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" s="44"/>
       <c r="N49" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G50" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="25"/>
+      <c r="I50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M50" s="44"/>
       <c r="N50" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G51" t="s">
         <v>24</v>
       </c>
-      <c r="M51" s="25"/>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M51" s="44"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="23" t="s">
         <v>76</v>
       </c>
@@ -9328,158 +7865,205 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
+      <c r="A53" s="25">
         <v>12</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="23" t="s">
         <v>78</v>
       </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="N54" s="1">
+        <v>45161</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="45"/>
+      <c r="N55" s="1">
+        <v>45161</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="23" t="s">
         <v>60</v>
       </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="45"/>
+      <c r="N56" s="1">
+        <v>45161</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="23" t="s">
         <v>61</v>
       </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="23" t="s">
         <v>75</v>
       </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
+      <c r="A59" s="25">
         <v>13</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>80</v>
       </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="23" t="s">
         <v>81</v>
       </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="23" t="s">
         <v>82</v>
       </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
       <c r="N61" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="23" t="s">
         <v>76</v>
       </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
       <c r="N62" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
       <c r="N63" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
+      <c r="A64" s="25">
         <v>14</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="23" t="s">
@@ -9499,11 +8083,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="23" t="s">
         <v>71</v>
       </c>
@@ -9521,11 +8105,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="23" t="s">
         <v>65</v>
       </c>
@@ -9539,26 +8123,26 @@
         <v>93</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N66" s="1">
         <v>45148</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
+      <c r="A67" s="25">
         <v>15</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="26" t="s">
+      <c r="B67" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F67" s="23" t="s">
@@ -9568,18 +8152,18 @@
         <v>16</v>
       </c>
       <c r="H67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I67" t="s">
         <v>131</v>
       </c>
-      <c r="I67" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="68" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="23" t="s">
         <v>21</v>
       </c>
@@ -9587,7 +8171,7 @@
         <v>24</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I68" t="s">
         <v>88</v>
@@ -9599,20 +8183,20 @@
         <v>27</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N68" s="1">
         <v>45161</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -9622,22 +8206,22 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
       <c r="F70" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" t="s">
         <v>24</v>
       </c>
       <c r="H70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" t="s">
         <v>135</v>
-      </c>
-      <c r="I70" t="s">
-        <v>136</v>
       </c>
       <c r="K70" t="s">
         <v>33</v>
@@ -9646,44 +8230,44 @@
         <v>27</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N70" s="1">
         <v>45161</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="23" t="s">
         <v>61</v>
       </c>
@@ -9692,85 +8276,118 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="A74" s="25">
+        <v>16</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="1">
+        <v>45161</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F76" s="23" t="s">
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F77" s="23" t="s">
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="N77" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="23" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F78" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>144</v>
+      </c>
+      <c r="I78" t="s">
+        <v>145</v>
+      </c>
+      <c r="N78" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
+  <mergeCells count="69">
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E40:E45"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="E64:E66"/>
@@ -9787,12 +8404,47 @@
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="E53:E58"/>
     <mergeCell ref="A53:A58"/>
-    <mergeCell ref="M47:M51"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="C67:C73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M28" r:id="rId1" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-369"/>
@@ -9802,9 +8454,10 @@
     <hyperlink ref="M47" r:id="rId5"/>
     <hyperlink ref="M68" r:id="rId6"/>
     <hyperlink ref="M70" r:id="rId7"/>
+    <hyperlink ref="M54" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -9818,7 +8471,7 @@
           <x14:formula1>
             <xm:f>'J:\github\All-documents\PAUA\ENTREGABLES\[Matiz de Pruebas Catalogos.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G74:G104</xm:sqref>
+          <xm:sqref>G79:G104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9830,7 +8483,7 @@
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G73</xm:sqref>
+          <xm:sqref>G7:G78</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9852,9 +8505,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D50"/>
+  <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -9862,8 +8515,7 @@
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
@@ -9885,23 +8537,31 @@
         <v>24</v>
       </c>
       <c r="B4" s="16">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18">
-        <v>110</v>
+      <c r="B7" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9913,22 +8573,12 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
@@ -9936,7 +8586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
@@ -9944,35 +8594,22 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="19">
-        <v>2</v>
-      </c>
-      <c r="D49" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="19"/>
-      <c r="C50" s="19">
-        <v>2</v>
-      </c>
-      <c r="D50" s="19">
-        <v>2</v>
-      </c>
+      <c r="C50" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId5"/>
+    <pivotCache cacheId="44" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -947,9 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,13 +998,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1100,66 +1100,8 @@
               <a:rPr lang="es-MX" sz="1800">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Configuración-&gt; Catálogos</a:t>
+              <a:t>Configuración-&gt; Plataforma Plataforma de Acceso Único y Aplicaciones </a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX" sz="1800">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PABMI Bienes Muebles</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -2224,6 +2166,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2609,6 +2552,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5690,7 +5634,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45162.388239699074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45168.679590509259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N26" sheet="Catálogos"/>
   </cacheSource>
@@ -6084,7 +6028,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6146,7 +6090,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6256,7 +6200,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6605,11 +6549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6630,94 +6574,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -7585,7 +7529,7 @@
       <c r="C40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="25" t="s">
@@ -7611,7 +7555,7 @@
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="25"/>
       <c r="F41" s="23" t="s">
         <v>70</v>
@@ -7633,7 +7577,7 @@
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="25"/>
       <c r="F42" s="23" t="s">
         <v>71</v>
@@ -7655,7 +7599,7 @@
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="25"/>
       <c r="F43" s="23" t="s">
         <v>73</v>
@@ -7677,7 +7621,7 @@
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="25"/>
       <c r="F44" s="23" t="s">
         <v>72</v>
@@ -7699,7 +7643,7 @@
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="25"/>
       <c r="F45" s="23" t="s">
         <v>65</v>
@@ -7727,7 +7671,7 @@
       <c r="B46" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -7752,7 +7696,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="23" t="s">
@@ -7774,7 +7718,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="23" t="s">
@@ -7794,7 +7738,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="23" t="s">
@@ -7814,7 +7758,7 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="23" t="s">
@@ -7834,7 +7778,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="23" t="s">
@@ -7854,7 +7798,7 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="23" t="s">
@@ -7899,7 +7843,7 @@
       <c r="G54" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="46" t="s">
+      <c r="M54" s="45" t="s">
         <v>150</v>
       </c>
       <c r="N54" s="1">
@@ -7918,7 +7862,7 @@
       <c r="G55" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="45"/>
+      <c r="M55" s="46"/>
       <c r="N55" s="1">
         <v>45161</v>
       </c>
@@ -7935,7 +7879,7 @@
       <c r="G56" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="45"/>
+      <c r="M56" s="46"/>
       <c r="N56" s="1">
         <v>45161</v>
       </c>
@@ -8381,6 +8325,13 @@
     <mergeCell ref="D74:D78"/>
     <mergeCell ref="C74:C78"/>
     <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="B67:B73"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="M47:M51"/>
     <mergeCell ref="E37:E39"/>
@@ -8397,18 +8348,21 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="E59:E63"/>
     <mergeCell ref="D59:D63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
     <mergeCell ref="B27:B34"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="D27:D34"/>
@@ -8419,11 +8373,10 @@
     <mergeCell ref="C19:C26"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="A19:A26"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="C67:C73"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -8431,20 +8384,11 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M28" r:id="rId1" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-369"/>
@@ -8507,8 +8451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="151">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -658,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +675,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -896,7 +902,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -944,6 +950,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,7 +1113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1600,9 +1606,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1666,9 +1670,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1732,9 +1734,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1855,9 +1855,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1878,9 +1876,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1901,9 +1897,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2166,7 +2160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2552,7 +2545,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6028,69 +6020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6199,8 +6129,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6291,6 +6221,68 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6550,10 +6542,10 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="L64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:D4"/>
+      <selection pane="bottomRight" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6574,94 +6566,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6734,6 +6726,9 @@
         <v>15</v>
       </c>
       <c r="J7" s="13"/>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
       <c r="M7" s="14" t="s">
         <v>85</v>
       </c>
@@ -6838,19 +6833,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -6870,11 +6865,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="23" t="s">
         <v>20</v>
       </c>
@@ -6892,11 +6887,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="23" t="s">
         <v>21</v>
       </c>
@@ -6914,11 +6909,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="23" t="s">
         <v>60</v>
       </c>
@@ -6936,11 +6931,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
@@ -6958,11 +6953,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
@@ -6980,11 +6975,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="23" t="s">
         <v>63</v>
       </c>
@@ -7002,11 +6997,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
@@ -7024,19 +7019,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="26">
         <v>6</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -7056,11 +7051,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
@@ -7078,11 +7073,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
@@ -7100,11 +7095,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="23" t="s">
         <v>60</v>
       </c>
@@ -7122,11 +7117,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
@@ -7144,11 +7139,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="23" t="s">
         <v>62</v>
       </c>
@@ -7166,11 +7161,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="23" t="s">
         <v>63</v>
       </c>
@@ -7188,11 +7183,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
@@ -7210,19 +7205,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="26">
         <v>7</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -7242,11 +7237,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
@@ -7267,11 +7262,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
@@ -7289,11 +7284,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="23" t="s">
         <v>60</v>
       </c>
@@ -7311,11 +7306,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="23" t="s">
         <v>61</v>
       </c>
@@ -7333,11 +7328,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="23" t="s">
         <v>62</v>
       </c>
@@ -7355,11 +7350,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="23" t="s">
         <v>63</v>
       </c>
@@ -7377,11 +7372,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="23" t="s">
         <v>65</v>
       </c>
@@ -7394,6 +7389,9 @@
       <c r="I34" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
       <c r="M34" s="5" t="s">
         <v>121</v>
       </c>
@@ -7402,19 +7400,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="26">
         <v>8</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="23" t="s">
@@ -7431,11 +7429,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
@@ -7450,19 +7448,19 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="26">
         <v>9</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="23" t="s">
@@ -7480,11 +7478,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="23" t="s">
         <v>106</v>
       </c>
@@ -7500,11 +7498,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="23" t="s">
         <v>61</v>
       </c>
@@ -7520,19 +7518,19 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="26">
         <v>10</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="23" t="s">
@@ -7552,11 +7550,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="23" t="s">
         <v>70</v>
       </c>
@@ -7566,6 +7564,9 @@
       <c r="H41" s="24" t="s">
         <v>112</v>
       </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
       <c r="M41" s="5" t="s">
         <v>122</v>
       </c>
@@ -7574,11 +7575,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="23" t="s">
         <v>71</v>
       </c>
@@ -7596,11 +7597,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="23" t="s">
         <v>73</v>
       </c>
@@ -7618,11 +7619,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="23" t="s">
         <v>72</v>
       </c>
@@ -7640,11 +7641,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="23" t="s">
         <v>65</v>
       </c>
@@ -7657,6 +7658,9 @@
       <c r="I45" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
       <c r="M45" s="5" t="s">
         <v>122</v>
       </c>
@@ -7665,19 +7669,19 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+      <c r="A46" s="26">
         <v>11</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F46" s="23" t="s">
@@ -7694,11 +7698,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="23" t="s">
         <v>20</v>
       </c>
@@ -7708,7 +7712,7 @@
       <c r="I47" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M47" s="44" t="s">
+      <c r="M47" s="45" t="s">
         <v>149</v>
       </c>
       <c r="N47" s="1">
@@ -7716,11 +7720,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
@@ -7730,17 +7734,17 @@
       <c r="I48" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M48" s="44"/>
+      <c r="M48" s="45"/>
       <c r="N48" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="23" t="s">
         <v>60</v>
       </c>
@@ -7750,17 +7754,20 @@
       <c r="I49" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M49" s="44"/>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="45"/>
       <c r="N49" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="23" t="s">
         <v>75</v>
       </c>
@@ -7770,17 +7777,17 @@
       <c r="I50" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="M50" s="44"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="23" t="s">
         <v>65</v>
       </c>
@@ -7793,14 +7800,14 @@
       <c r="I51" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M51" s="44"/>
+      <c r="M51" s="45"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="23" t="s">
         <v>76</v>
       </c>
@@ -7809,19 +7816,19 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="A53" s="26">
         <v>12</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="23" t="s">
@@ -7832,18 +7839,18 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="23" t="s">
         <v>78</v>
       </c>
       <c r="G54" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="45" t="s">
+      <c r="M54" s="46" t="s">
         <v>150</v>
       </c>
       <c r="N54" s="1">
@@ -7851,45 +7858,45 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G55" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="46"/>
+      <c r="M55" s="47"/>
       <c r="N55" s="1">
         <v>45161</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="46"/>
+      <c r="M56" s="47"/>
       <c r="N56" s="1">
         <v>45161</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="23" t="s">
         <v>61</v>
       </c>
@@ -7898,11 +7905,11 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="23" t="s">
         <v>75</v>
       </c>
@@ -7911,19 +7918,19 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
+      <c r="A59" s="26">
         <v>13</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="23" t="s">
@@ -7934,11 +7941,11 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="23" t="s">
         <v>81</v>
       </c>
@@ -7947,11 +7954,11 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="23" t="s">
         <v>82</v>
       </c>
@@ -7963,11 +7970,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="23" t="s">
         <v>76</v>
       </c>
@@ -7979,11 +7986,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="23" t="s">
         <v>65</v>
       </c>
@@ -7995,19 +8002,19 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="26">
         <v>14</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="23" t="s">
@@ -8027,11 +8034,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="23" t="s">
         <v>71</v>
       </c>
@@ -8049,11 +8056,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="23" t="s">
         <v>65</v>
       </c>
@@ -8066,7 +8073,7 @@
       <c r="I66" t="s">
         <v>93</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="25" t="s">
         <v>123</v>
       </c>
       <c r="N66" s="1">
@@ -8074,19 +8081,19 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
+      <c r="A67" s="26">
         <v>15</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F67" s="23" t="s">
@@ -8103,11 +8110,11 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="23" t="s">
         <v>21</v>
       </c>
@@ -8134,11 +8141,11 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="23" t="s">
         <v>129</v>
       </c>
@@ -8150,11 +8157,11 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
       <c r="F70" s="23" t="s">
         <v>126</v>
       </c>
@@ -8181,11 +8188,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
       <c r="F71" s="23" t="s">
         <v>127</v>
       </c>
@@ -8194,11 +8201,11 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="23" t="s">
         <v>128</v>
       </c>
@@ -8207,11 +8214,11 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
       <c r="F73" s="23" t="s">
         <v>61</v>
       </c>
@@ -8220,19 +8227,19 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="A74" s="26">
         <v>16</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F74" s="23" t="s">
@@ -8246,11 +8253,11 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="23" t="s">
         <v>138</v>
       </c>
@@ -8259,11 +8266,11 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="23" t="s">
         <v>139</v>
       </c>
@@ -8272,11 +8279,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="23" t="s">
         <v>140</v>
       </c>
@@ -8294,11 +8301,11 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="23" t="s">
         <v>141</v>
       </c>

--- a/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
+++ b/PAUA/ENTREGABLES/Matriz de Pruebas Roles de Usuario.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -951,8 +951,20 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,18 +1015,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6020,7 +6020,69 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6129,8 +6191,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6221,68 +6283,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6542,7 +6542,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="L64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="L62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="M70" sqref="M70"/>
@@ -6566,94 +6566,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -6833,19 +6833,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -6865,11 +6865,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="23" t="s">
         <v>20</v>
       </c>
@@ -6887,11 +6887,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="23" t="s">
         <v>21</v>
       </c>
@@ -6909,11 +6909,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="23" t="s">
         <v>60</v>
       </c>
@@ -6931,11 +6931,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
@@ -6953,11 +6953,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
@@ -6975,11 +6975,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="23" t="s">
         <v>63</v>
       </c>
@@ -6997,11 +6997,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
@@ -7019,19 +7019,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="28">
         <v>6</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -7051,11 +7051,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
@@ -7073,11 +7073,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
@@ -7095,11 +7095,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="23" t="s">
         <v>60</v>
       </c>
@@ -7117,11 +7117,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
@@ -7139,11 +7139,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="23" t="s">
         <v>62</v>
       </c>
@@ -7161,11 +7161,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="23" t="s">
         <v>63</v>
       </c>
@@ -7183,11 +7183,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="23" t="s">
         <v>65</v>
       </c>
@@ -7205,19 +7205,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+      <c r="A27" s="28">
         <v>7</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -7237,11 +7237,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
@@ -7262,11 +7262,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
@@ -7284,11 +7284,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="23" t="s">
         <v>60</v>
       </c>
@@ -7306,11 +7306,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="23" t="s">
         <v>61</v>
       </c>
@@ -7328,11 +7328,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="23" t="s">
         <v>62</v>
       </c>
@@ -7350,11 +7350,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="23" t="s">
         <v>63</v>
       </c>
@@ -7372,11 +7372,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="23" t="s">
         <v>65</v>
       </c>
@@ -7400,19 +7400,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="28">
         <v>8</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="23" t="s">
@@ -7429,11 +7429,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
@@ -7448,19 +7448,19 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="A37" s="28">
         <v>9</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="23" t="s">
@@ -7478,11 +7478,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="23" t="s">
         <v>106</v>
       </c>
@@ -7498,11 +7498,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="23" t="s">
         <v>61</v>
       </c>
@@ -7518,19 +7518,19 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="A40" s="28">
         <v>10</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F40" s="23" t="s">
@@ -7550,11 +7550,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="23" t="s">
         <v>70</v>
       </c>
@@ -7575,11 +7575,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="26"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="23" t="s">
         <v>71</v>
       </c>
@@ -7597,11 +7597,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="23" t="s">
         <v>73</v>
       </c>
@@ -7619,11 +7619,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="23" t="s">
         <v>72</v>
       </c>
@@ -7641,11 +7641,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="23" t="s">
         <v>65</v>
       </c>
@@ -7669,19 +7669,19 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+      <c r="A46" s="28">
         <v>11</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F46" s="23" t="s">
@@ -7698,11 +7698,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="23" t="s">
         <v>20</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="I47" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M47" s="45" t="s">
+      <c r="M47" s="29" t="s">
         <v>149</v>
       </c>
       <c r="N47" s="1">
@@ -7720,11 +7720,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="23" t="s">
         <v>21</v>
       </c>
@@ -7734,17 +7734,17 @@
       <c r="I48" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M48" s="45"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="23" t="s">
         <v>60</v>
       </c>
@@ -7757,17 +7757,17 @@
       <c r="L49" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="45"/>
+      <c r="M49" s="29"/>
       <c r="N49" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="23" t="s">
         <v>75</v>
       </c>
@@ -7777,17 +7777,17 @@
       <c r="I50" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="M50" s="45"/>
+      <c r="M50" s="29"/>
       <c r="N50" s="1">
         <v>45149</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="23" t="s">
         <v>65</v>
       </c>
@@ -7800,14 +7800,14 @@
       <c r="I51" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M51" s="45"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="23" t="s">
         <v>76</v>
       </c>
@@ -7816,19 +7816,19 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
+      <c r="A53" s="28">
         <v>12</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="23" t="s">
@@ -7839,18 +7839,18 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="23" t="s">
         <v>78</v>
       </c>
       <c r="G54" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="46" t="s">
+      <c r="M54" s="26" t="s">
         <v>150</v>
       </c>
       <c r="N54" s="1">
@@ -7858,45 +7858,45 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G55" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="47"/>
+      <c r="M55" s="27"/>
       <c r="N55" s="1">
         <v>45161</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="47"/>
+      <c r="M56" s="27"/>
       <c r="N56" s="1">
         <v>45161</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="23" t="s">
         <v>61</v>
       </c>
@@ -7905,11 +7905,11 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="23" t="s">
         <v>75</v>
       </c>
@@ -7918,19 +7918,19 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
+      <c r="A59" s="28">
         <v>13</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="23" t="s">
@@ -7941,11 +7941,11 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="23" t="s">
         <v>81</v>
       </c>
@@ -7954,11 +7954,11 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="23" t="s">
         <v>82</v>
       </c>
@@ -7970,11 +7970,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="23" t="s">
         <v>76</v>
       </c>
@@ -7986,11 +7986,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="23" t="s">
         <v>65</v>
       </c>
@@ -8002,19 +8002,19 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
+      <c r="A64" s="28">
         <v>14</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="23" t="s">
@@ -8034,11 +8034,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="23" t="s">
         <v>71</v>
       </c>
@@ -8056,11 +8056,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="23" t="s">
         <v>65</v>
       </c>
@@ -8081,19 +8081,19 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
+      <c r="A67" s="28">
         <v>15</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F67" s="23" t="s">
@@ -8110,11 +8110,11 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
       <c r="F68" s="23" t="s">
         <v>21</v>
       </c>
@@ -8141,11 +8141,11 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="23" t="s">
         <v>129</v>
       </c>
@@ -8157,11 +8157,11 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
       <c r="F70" s="23" t="s">
         <v>126</v>
       </c>
@@ -8188,11 +8188,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="23" t="s">
         <v>127</v>
       </c>
@@ -8201,11 +8201,11 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="23" t="s">
         <v>128</v>
       </c>
@@ -8214,11 +8214,11 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="23" t="s">
         <v>61</v>
       </c>
@@ -8227,19 +8227,19 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="26">
+      <c r="A74" s="28">
         <v>16</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F74" s="23" t="s">
@@ -8253,11 +8253,11 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="23" t="s">
         <v>138</v>
       </c>
@@ -8266,11 +8266,11 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="23" t="s">
         <v>139</v>
       </c>
@@ -8279,11 +8279,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="23" t="s">
         <v>140</v>
       </c>
@@ -8301,11 +8301,11 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="23" t="s">
         <v>141</v>
       </c>
@@ -8327,18 +8327,47 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="D40:D45"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="M47:M51"/>
     <mergeCell ref="E37:E39"/>
@@ -8355,47 +8384,18 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="E59:E63"/>
     <mergeCell ref="D59:D63"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="B67:B73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M28" r:id="rId1" display="https://paua-sfytgenl.atlassian.net/browse/KPAUA-369"/>
